--- a/data/income_statement/3digits/total/559_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/559_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>559-Other accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>559-Other accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>191162.3177</v>
@@ -956,37 +862,42 @@
         <v>241089.50132</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>293829.13828</v>
+        <v>293949.54304</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>361776.50619</v>
+        <v>363186.06728</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>414616.21935</v>
+        <v>415597.42575</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>639988.7219</v>
+        <v>643415.03026</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>677650.99012</v>
+        <v>685219.1425599999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>791993.8826700001</v>
+        <v>811683.12604</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1057851.25333</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1045279.41249</v>
+        <v>1047640.614</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1164696.50867</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1187163.06122</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>828621.29</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>179782.82593</v>
@@ -995,37 +906,42 @@
         <v>225767.57271</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>283650.80456</v>
+        <v>283771.20932</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>340639.97528</v>
+        <v>342013.37724</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>399314.2892</v>
+        <v>400285.38561</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>621808.0541700001</v>
+        <v>625234.27778</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>656150.35116</v>
+        <v>663570.8917899999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>771385.97372</v>
+        <v>790764.8241999999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1018923.3864</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1002389.30777</v>
+        <v>1004420.28184</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1076619.68035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1097984.24958</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>773041.307</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>3544.79967</v>
@@ -1037,7 +953,7 @@
         <v>45.14787</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6949.10167</v>
+        <v>6949.101670000001</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>1057.88492</v>
@@ -1046,10 +962,10 @@
         <v>1790.99616</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1779.52958</v>
+        <v>1850.80234</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1563.36001</v>
+        <v>1565.96391</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>4732.36213</v>
@@ -1058,13 +974,18 @@
         <v>707.2064</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5267.70681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5438.6808</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3506.379</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>7834.692099999999</v>
@@ -1076,37 +997,42 @@
         <v>10133.18585</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>14187.42924</v>
+        <v>14223.58837</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>14244.04523</v>
+        <v>14254.15522</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>16389.67157</v>
+        <v>16389.75632</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>19721.10938</v>
+        <v>19797.44843</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>19044.54894</v>
+        <v>19352.33793</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>34195.5048</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>42182.89832</v>
+        <v>42513.12576</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>82809.12151000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>83740.13084</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>52073.604</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>571.7980799999999</v>
+        <v>571.79808</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>215.77268</v>
@@ -1124,10 +1050,10 @@
         <v>1320.43929</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2335.47855</v>
+        <v>2340.57114</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2750.28666</v>
+        <v>2779.01566</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>4000.3445</v>
@@ -1136,13 +1062,18 @@
         <v>5614.774219999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5052.830910000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5065.913570000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>23799.464</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>322.20284</v>
@@ -1154,19 +1085,19 @@
         <v>112.75409</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>84.77833</v>
+        <v>84.77832999999998</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>925.2818600000001</v>
+        <v>925.2818599999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>943.58241</v>
+        <v>943.5824099999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1620.89745</v>
+        <v>1625.99004</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1509.13939</v>
+        <v>1537.86839</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1523.49607</v>
@@ -1175,13 +1106,18 @@
         <v>2831.74158</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3146.22629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3159.30895</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>21901.086</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>246.00622</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>1879.816</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>1828.661</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>3.58902</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>26.78862</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>69.717</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>190590.51962</v>
@@ -1268,37 +1214,42 @@
         <v>240873.72864</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>293578.03226</v>
+        <v>293698.43702</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>361534.53374</v>
+        <v>362944.09483</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>413559.44907</v>
+        <v>414540.6554700001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>638668.28261</v>
+        <v>642094.59097</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>675315.5115700001</v>
+        <v>682878.5714199999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>789243.59601</v>
+        <v>808904.11038</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1053850.90883</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1039664.63827</v>
+        <v>1042025.83978</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1159643.67776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1182097.14765</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>804821.826</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>152209.62837</v>
@@ -1307,37 +1258,42 @@
         <v>190773.93461</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>234433.86193</v>
+        <v>234502.29143</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>295606.30623</v>
+        <v>296460.42057</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>340399.35181</v>
+        <v>341249.8228900001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>536450.95734</v>
+        <v>538145.18889</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>568492.2822200001</v>
+        <v>573100.40124</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>609284.6446300001</v>
+        <v>628148.4250999999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>800330.95153</v>
+        <v>800330.9515300001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>799999.6861</v>
+        <v>801068.62898</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>909288.40718</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>926330.97774</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>690115.2389999999</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>26721.29537</v>
@@ -1358,7 +1314,7 @@
         <v>25833.34519</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>35423.13806</v>
+        <v>35552.27656000001</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>28609.43122</v>
@@ -1370,13 +1326,18 @@
         <v>31789.42421</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>31636.68961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>32579.23963</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>42202.156</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>21858.49753</v>
@@ -1388,34 +1349,39 @@
         <v>28507.03763</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>34068.04771</v>
+        <v>34174.28872</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>26171.5092</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>38192.7705</v>
+        <v>38299.22951999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>54365.42459</v>
+        <v>55196.85159000001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>74577.17723999999</v>
+        <v>74577.17724</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>85739.27466</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>50508.53233</v>
+        <v>50622.41822</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>42733.70249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>43330.30111</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>83439.751</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>103398.09967</v>
@@ -1424,37 +1390,42 @@
         <v>142766.14429</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>178870.59238</v>
+        <v>178939.02188</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>233022.10029</v>
+        <v>233769.97362</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>285307.75713</v>
+        <v>286158.22821</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>468272.0758399999</v>
+        <v>469859.84837</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>472695.19796</v>
+        <v>476342.75148</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>505239.0227500001</v>
+        <v>524102.8032199999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>672511.29023</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>714178.15406</v>
+        <v>715090.8678</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>832350.6787</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>845938.84638</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>549997.154</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>231.7358</v>
@@ -1472,28 +1443,33 @@
         <v>2439.60491</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>4152.765810000001</v>
+        <v>4152.76581</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>6008.52161</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>859.0134199999999</v>
+        <v>859.01342</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>4981.75972</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3523.5755</v>
+        <v>3565.91875</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>2567.33638</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4482.59062</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>14476.178</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>38380.89125</v>
@@ -1502,76 +1478,86 @@
         <v>50099.79403</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>59144.17033</v>
+        <v>59196.14559</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>65928.22751</v>
+        <v>66483.67426</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>73160.09726000001</v>
+        <v>73290.83258</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>102217.32527</v>
+        <v>103949.40208</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>106823.22935</v>
+        <v>109778.17018</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>179958.95138</v>
+        <v>180755.68528</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>253519.9573</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>239664.9521699999</v>
+        <v>240957.2108</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>250355.27058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>255766.16991</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>114706.587</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>39487.06584</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>55291.75847000001</v>
+        <v>55291.75847</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>72853.86714</v>
+        <v>72860.91262</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>87606.45486</v>
+        <v>88127.23753999999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>97237.86846</v>
+        <v>97386.76031999999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>121959.44002</v>
+        <v>123129.76404</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>161685.52338</v>
+        <v>164684.70773</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>193047.44232</v>
+        <v>195599.86773</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>204184.13599</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>199065.92257</v>
+        <v>200981.37463</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>266455.72321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>271620.40592</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>207139.221</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2.09722</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>223.02976</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>185.785</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>2364.83401</v>
@@ -1622,118 +1613,133 @@
         <v>4507.12588</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>3656.91186</v>
+        <v>3659.34198</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>6161.68012</v>
+        <v>6171.87318</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>6567.77999</v>
+        <v>6568.348220000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>9604.4465</v>
+        <v>9638.76802</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>10928.95291</v>
+        <v>11690.57822</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>15432.02315</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>9037.17123</v>
+        <v>9179.08662</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>13941.13668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14446.49261</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>11630.842</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>37120.13461</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>52762.971</v>
+        <v>52762.97100000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>68341.92508</v>
+        <v>68348.97056</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>83949.11405000002</v>
+        <v>84467.46661</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>91025.14118000001</v>
+        <v>91163.83998</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>115282.43412</v>
+        <v>116452.18991</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>152079.58052</v>
+        <v>155044.44335</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>182008.20462</v>
+        <v>183799.00472</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>188607.5328</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>188830.3809</v>
+        <v>190603.91757</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>252291.55677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>256950.88355</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>195322.594</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-1106.17459</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-5191.964440000001</v>
+        <v>-5191.96444</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-13709.69681</v>
+        <v>-13664.76703</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-21678.22735</v>
+        <v>-21643.56328</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-24077.7712</v>
+        <v>-24095.92774</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-19742.11475</v>
+        <v>-19180.36196</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-54862.29403</v>
+        <v>-54906.53755000002</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-13088.49094</v>
+        <v>-14844.18244999999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>49335.82131</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>40599.0296</v>
+        <v>39975.83617</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-16100.45263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-15854.23601000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-92432.63400000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>6834.56588</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>6436.56188</v>
+        <v>6436.561880000001</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>11383.53618</v>
@@ -1742,31 +1748,36 @@
         <v>12385.2318</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>19914.28775</v>
+        <v>19908.5377</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>33722.49314</v>
+        <v>33724.30433000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>33935.60983</v>
+        <v>33963.21975</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>29494.86921</v>
+        <v>31337.34546</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>40032.39907</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>64683.96225</v>
+        <v>64686.66925000001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>91708.19918000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>91691.15502999998</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>76818.338</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>151.335</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>11854.46693</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>11025.759</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>11025.759</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>767.6589</v>
@@ -1865,25 +1886,30 @@
         <v>3547.85626</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3909.538309999999</v>
+        <v>3936.67541</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6086.608480000001</v>
+        <v>6265.22145</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>8794.194420000002</v>
+        <v>8794.19442</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>14087.54654</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>22343.38578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>22344.7386</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>8602.606</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>365.92862</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>109.15073</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>93.30800000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>144.75148</v>
@@ -1946,7 +1977,7 @@
         <v>101.77764</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>127.777</v>
+        <v>174.036</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>328.85999</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>352.87019</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>114.808</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>27.30892</v>
@@ -1982,7 +2018,7 @@
         <v>112.77149</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>67.17616000000001</v>
+        <v>67.64897999999999</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>248.22205</v>
@@ -1994,13 +2030,18 @@
         <v>200.22014</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>145.69781</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>145.83264</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>327.946</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1608.55811</v>
@@ -2024,22 +2065,27 @@
         <v>10561.38689</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>4726.63895</v>
+        <v>6259.72198</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>11557.84464</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>24614.70548</v>
+        <v>24615.94105</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>35988.65759</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>36009.37142</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>23151.848</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.7561599999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>18.11972</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>156.105</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>20.27507</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>54.07002000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>27.636</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>3747.99362</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4034.647309999999</v>
+        <v>4034.64731</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>6151.65351</v>
@@ -2132,31 +2188,36 @@
         <v>7946.004440000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6267.34613</v>
+        <v>6261.59608</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>11679.04546</v>
+        <v>11680.85665</v>
       </c>
       <c r="I35" s="48" t="n">
         <v>13168.08041</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>11671.56817</v>
+        <v>11756.08942</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>11862.05545</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>15974.1391</v>
+        <v>15975.61053</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>20841.78041</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>20802.53478</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>22292.563</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1105.94115</v>
@@ -2165,37 +2226,42 @@
         <v>1794.60799</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5524.7591</v>
+        <v>5524.759099999999</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>2571.96492</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5507.140910000001</v>
+        <v>5507.140909999999</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>6576.480300000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>17569.841</v>
+        <v>17569.84291</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>24837.77836</v>
+        <v>24930.63753</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>24616.92941</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>48517.34162</v>
+        <v>48517.99385000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>28808.93116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>28809.04331</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>14164.784</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>34.1148</v>
@@ -2210,7 +2276,7 @@
         <v>213.36363</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>37.11855</v>
+        <v>37.11855000000001</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>82.45048</v>
@@ -2225,16 +2291,21 @@
         <v>184.70145</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>103.1894</v>
+        <v>103.84163</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>183.09165</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>560.102</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>62.55573</v>
@@ -2258,7 +2329,7 @@
         <v>218.89013</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>503.01531</v>
+        <v>508.85031</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>177.849</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>384.48408</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>276.281</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.03988000000000001</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>26.91319</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1.888</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>898.09602</v>
+        <v>898.0960200000001</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>635.1345799999999</v>
@@ -2336,7 +2417,7 @@
         <v>16763.0571</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>20010.45622</v>
+        <v>20092.6325</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>23541.02532</v>
@@ -2345,13 +2426,18 @@
         <v>47125.8595</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>27136.11745</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>27136.18908</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>11752.8</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>4e-05</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.0002</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.741</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>111.13468</v>
@@ -2450,25 +2546,30 @@
         <v>451.62292</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>489.5909300000001</v>
+        <v>489.59284</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>4127.07836</v>
+        <v>4131.92625</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>692.93173</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>684.96964</v>
+        <v>684.9696399999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1078.32459</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1078.36511</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1572.972</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2449.87177</v>
@@ -2477,37 +2578,42 @@
         <v>4299.87983</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>9313.657280000001</v>
+        <v>9313.657279999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>11324.3881</v>
+        <v>11365.21371</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>42421.20780999999</v>
+        <v>42440.41043</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>29062.34695</v>
+        <v>29270.78974</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>64671.39314</v>
+        <v>64709.35574</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>67638.3092</v>
+        <v>73198.99397</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>105311.53089</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>120652.3632</v>
+        <v>120666.91847</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>89940.32662000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>90772.16632</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>88076.829</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>2407.35606</v>
@@ -2516,37 +2622,42 @@
         <v>3803.32479</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>8553.537969999999</v>
+        <v>8553.537970000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>10472.134</v>
+        <v>10512.95961</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>37283.20801</v>
+        <v>37302.41063000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>11150.05661</v>
+        <v>11161.84365</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>21998.79142</v>
+        <v>22036.75402</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>33214.22217</v>
+        <v>33230.42818</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>36742.01739</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>47248.34890999999</v>
+        <v>47262.90418</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>58960.32449</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>59416.28662000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>65828.202</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>42.51571</v>
@@ -2564,13 +2675,13 @@
         <v>5137.9998</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>17912.29034</v>
+        <v>18108.94609</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>42672.60172</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>34424.08703</v>
+        <v>39968.56579</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>68569.5135</v>
@@ -2579,13 +2690,18 @@
         <v>73404.01428999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>30980.00212999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>31355.8797</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>22248.627</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>2172.57837</v>
@@ -2594,37 +2710,42 @@
         <v>-4849.89038</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-17164.57701</v>
+        <v>-17119.64723</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-23189.34857</v>
+        <v>-23195.51011</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-52091.83217</v>
+        <v>-52134.94138</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-21658.44886</v>
+        <v>-21303.32767</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-103167.91834</v>
+        <v>-103222.51645</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-76069.70929</v>
+        <v>-81636.46849</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-40560.23992</v>
+        <v>-40560.23992000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-63886.71296999999</v>
+        <v>-64522.4069</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-43141.51123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-43744.29061</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-117855.909</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1308.07393</v>
@@ -2633,37 +2754,42 @@
         <v>1387.20823</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4787.25911</v>
+        <v>4787.259109999999</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>4868.39734</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>9836.27802</v>
+        <v>9839.28959</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>17735.79545</v>
+        <v>17737.10611</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>22187.81844</v>
+        <v>22234.80473</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>22609.77089</v>
+        <v>22646.07191</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>19044.2597</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>35460.66459</v>
+        <v>35488.55947</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>34916.34254000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>35528.87418999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>26656.905</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>32.16599</v>
@@ -2684,25 +2810,30 @@
         <v>36.42789</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>555.7655599999999</v>
+        <v>555.7655600000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>35.361</v>
+        <v>39.01011</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>26.23849</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>37.41173</v>
+        <v>37.41173000000001</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>10.72642</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>51.026</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1275.90794</v>
@@ -2717,34 +2848,39 @@
         <v>4861.032929999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>9815.326010000001</v>
+        <v>9818.337579999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>17699.36756</v>
+        <v>17700.67822</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>21632.05288</v>
+        <v>21679.03917</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>22574.40989</v>
+        <v>22607.0618</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>19018.02121</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>35423.25286</v>
+        <v>35451.14774</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>34905.61612000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>35518.14777</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>26605.879</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2115.501369999999</v>
+        <v>2115.50137</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>2926.09773</v>
@@ -2753,34 +2889,39 @@
         <v>19865.31252</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3925.18566</v>
+        <v>3934.59236</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4699.833060000001</v>
+        <v>4704.09573</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>17261.87497</v>
+        <v>17263.87135</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6604.07601</v>
+        <v>6615.181519999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>23982.99477</v>
+        <v>24063.96867</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>11608.71741</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>11751.45252</v>
+        <v>11919.45882</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>14068.57193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>15149.59376</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>8942.103999999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>59.27352</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>4.575</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>849.10924</v>
@@ -2828,10 +2974,10 @@
         <v>637.3276099999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>793.7296699999999</v>
+        <v>793.7296700000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>355.6513600000001</v>
+        <v>355.65136</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>388.84851</v>
@@ -2840,10 +2986,10 @@
         <v>246.17032</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>767.6366499999999</v>
+        <v>767.63665</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>560.0047099999999</v>
+        <v>563.85442</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>352.57258</v>
@@ -2852,13 +2998,18 @@
         <v>820.19175</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>587.26085</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>734.8863499999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>965.7859999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1207.11861</v>
@@ -2870,34 +3021,39 @@
         <v>19008.83855</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3529.8463</v>
+        <v>3539.253</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4030.56321</v>
+        <v>4034.82588</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>17015.12948</v>
+        <v>17017.12586</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5785.56567</v>
+        <v>5796.671179999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>23411.99006</v>
+        <v>23489.11425</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>11194.54432</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>10800.21019</v>
+        <v>10968.21649</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>13481.31108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>14414.70741</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>7971.743</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1365.15093</v>
@@ -2906,37 +3062,42 @@
         <v>-6388.77988</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-32242.63042</v>
+        <v>-32197.70064</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-22246.13689</v>
+        <v>-22261.70513</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-46955.38720999999</v>
+        <v>-46999.74752</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-21184.52838</v>
+        <v>-20830.09291</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-87584.17590999999</v>
+        <v>-87602.89323999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-77442.93317</v>
+        <v>-83054.36525</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-33124.69763</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-40177.50089999999</v>
+        <v>-40953.30625</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-22293.74062</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-23365.01018</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-100141.108</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1833.04442</v>
@@ -2954,64 +3115,72 @@
         <v>3739.54746</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>7628.16329</v>
+        <v>7644.43278</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4789.635689999999</v>
+        <v>4821.24582</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>6457.564280000001</v>
+        <v>6486.71362</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>15857.96995</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>19029.52374</v>
+        <v>19046.18962</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>9043.773590000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>9335.28917</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>7020.535</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-467.89349</v>
+        <v>-467.8934899999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-8839.739959999999</v>
+        <v>-8839.739960000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-35169.46112</v>
+        <v>-35124.53134</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-25305.28777</v>
+        <v>-25320.85601</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-50694.93467</v>
+        <v>-50739.29498000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-28812.69167</v>
+        <v>-28474.52569000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-92373.8116</v>
+        <v>-92424.13906</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-83900.49745</v>
+        <v>-89541.07887</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-48982.66758</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-59207.02464000001</v>
+        <v>-59999.49587000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-31337.51421</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-32700.29935</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-107161.643</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>759</v>
@@ -3038,34 +3210,37 @@
         <v>832</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1208</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1128</v>
+        <v>1161</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1207</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>